--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ديفيد مارك مكرم شاكر قرياقص</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
     <x:t>1230044</x:t>
@@ -455,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1036,7 +1045,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1416,9 +1425,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,16 +1452,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1947,6 +1956,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -156,6 +156,15 @@
     <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
   </x:si>
   <x:si>
+    <x:t>1240326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عادل ابراهيم حسين السعيد عبد الله شعيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adel Ebrahim Hussein Shoaib</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250207</x:t>
   </x:si>
   <x:si>
@@ -259,6 +268,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ehab Ahmed Elbadawy Salem Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أحمد محمود سامى بشر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -464,7 +482,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -764,7 +782,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +790,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.010625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1301,7 +1319,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1333,7 +1351,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1457,9 +1475,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,16 +1502,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1715,7 +1733,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1779,7 +1797,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1811,7 +1829,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,7 +1925,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1939,7 +1957,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1971,7 +1989,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1988,6 +2006,70 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -259,6 +259,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240367</x:t>
@@ -482,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -782,7 +791,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1701,7 +1710,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2070,6 +2079,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -93,6 +93,15 @@
     <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
+    <x:t>1240059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230044</x:t>
   </x:si>
   <x:si>
@@ -163,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>4250207</x:t>
@@ -491,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -791,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1104,7 +1122,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1136,7 +1154,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1168,7 +1186,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1200,7 +1218,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1232,7 +1250,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1264,7 +1282,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1296,7 +1314,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1328,7 +1346,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1360,7 +1378,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1392,7 +1410,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1516,9 +1534,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1541,16 +1561,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1573,16 +1593,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1614,7 +1632,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1646,7 +1664,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1678,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1710,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1742,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1774,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1806,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1838,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1870,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1902,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1934,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1998,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2030,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2062,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2111,6 +2129,70 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -111,6 +111,15 @@
     <x:t>Salma Mohamed Ebrahim Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240074</x:t>
   </x:si>
   <x:si>
@@ -192,6 +201,15 @@
     <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
   </x:si>
   <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250180</x:t>
   </x:si>
   <x:si>
@@ -210,6 +228,15 @@
     <x:t>Ola Soliman Fouad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250183</x:t>
   </x:si>
   <x:si>
@@ -219,6 +246,15 @@
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250185</x:t>
   </x:si>
   <x:si>
@@ -226,6 +262,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ihab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو صبري عبداللطيف ابراهيم طه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amr sabry abdullatif ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>4240037</x:t>
@@ -509,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1186,7 +1231,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1218,7 +1263,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1250,7 +1295,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1282,7 +1327,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1314,7 +1359,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1346,7 +1391,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1378,7 +1423,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1410,7 +1455,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1442,7 +1487,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1474,7 +1519,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1506,7 +1551,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1538,7 +1583,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1570,7 +1615,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,9 +1643,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,16 +1670,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,16 +1702,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,16 +1734,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,16 +1766,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,16 +1798,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1792,7 +1837,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1824,7 +1869,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1856,7 +1901,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1888,7 +1933,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1965,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1997,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +2029,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2061,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2093,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2125,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2157,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2189,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2221,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2238,166 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4149983796</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6652498495</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -183,6 +183,15 @@
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
   </x:si>
   <x:si>
+    <x:t>1240080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Khaled Elameer</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240178</x:t>
   </x:si>
   <x:si>
@@ -264,6 +273,15 @@
     <x:t>Omar Ihab</x:t>
   </x:si>
   <x:si>
+    <x:t>1240103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حاتم محمد محمود الفحل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240116</x:t>
   </x:si>
   <x:si>
@@ -313,6 +331,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Gamal Yones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -554,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -854,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1487,7 +1514,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1519,7 +1546,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1551,7 +1578,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1583,7 +1610,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1615,7 +1642,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1647,7 +1674,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1679,7 +1706,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1711,7 +1738,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1743,7 +1770,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1775,7 +1802,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,9 +1830,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1828,16 +1857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1860,16 +1889,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1901,7 +1928,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1933,7 +1960,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1965,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1997,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2029,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45922.5055743403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2061,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2093,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2125,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2157,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2189,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2221,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2253,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2285,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2317,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2349,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2381,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2398,6 +2425,102 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6656868056</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240116</x:t>
@@ -581,7 +590,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -881,7 +890,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1866,7 +1875,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45925.6680363426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1894,9 +1903,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1919,16 +1930,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,7 +1969,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1992,7 +2001,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2024,7 +2033,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2056,7 +2065,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45922.5055743403</x:v>
+        <x:v>45909.6376564815</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2088,7 +2097,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6978297454</x:v>
+        <x:v>45922.5055743403</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2120,7 +2129,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6978297454</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2152,7 +2161,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2184,7 +2193,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.5992594097</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2216,7 +2225,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4158576736</x:v>
+        <x:v>45919.5992594097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2248,7 +2257,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4158576736</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2280,7 +2289,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2312,7 +2321,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2344,7 +2353,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6689897338</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2376,7 +2385,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4149983796</x:v>
+        <x:v>45907.6689897338</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,7 +2417,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45908.4149983796</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2440,7 +2449,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2472,7 +2481,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6656868056</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2504,7 +2513,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6656868056</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2521,6 +2530,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -57,6 +57,15 @@
     <x:t>Adham Mohamed Sherif</x:t>
   </x:si>
   <x:si>
+    <x:t>1240029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امين حاتم على محمد زين الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amin Hatem Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240039</x:t>
   </x:si>
   <x:si>
@@ -331,15 +340,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جمال يونس احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Gamal Yones</x:t>
   </x:si>
   <x:si>
     <x:t>4250211</x:t>
@@ -1075,7 +1075,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45927.4185126505</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1107,7 +1107,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1139,7 +1139,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6717293634</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1171,7 +1171,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.5900731829</x:v>
+        <x:v>45907.6717293634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1203,7 +1203,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.8959554398</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1235,7 +1235,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45917.3926371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1395,7 +1395,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1427,7 +1427,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1459,7 +1459,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1491,7 +1491,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1523,7 +1523,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.5312450232</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1555,7 +1555,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45918.4230696759</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1843,7 +1843,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4940454861</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1875,7 +1875,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.6680363426</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1907,7 +1907,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.4261710648</x:v>
+        <x:v>45925.6680363426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1935,9 +1935,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.679734919</x:v>
+        <x:v>45921.4261710648</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1960,16 +1962,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.679734919</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2001,7 +2001,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2033,7 +2033,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2065,7 +2065,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.6376564815</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -111,6 +111,15 @@
     <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد مصباح وجيه حسن شريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Mesbah Wagih Hassan Sherif</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230044</x:t>
   </x:si>
   <x:si>
@@ -138,15 +147,6 @@
     <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
   </x:si>
   <x:si>
-    <x:t>1240075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما طارق محمود جاب الله سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240412</x:t>
   </x:si>
   <x:si>
@@ -210,6 +210,15 @@
     <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250207</x:t>
   </x:si>
   <x:si>
@@ -253,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>4250184</x:t>
@@ -898,7 +898,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45927.7847960648</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.3926371181</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45927.8244747685</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4230696759</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35068.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35068.xlsx
@@ -75,6 +75,15 @@
     <x:t>Bilal Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOURG</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240217</x:t>
   </x:si>
   <x:si>
@@ -262,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>4250185</x:t>
@@ -1139,7 +1139,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45929.5531209491</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1171,7 +1171,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6717293634</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1203,7 +1203,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.5900731829</x:v>
+        <x:v>45907.6717293634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1235,7 +1235,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.8959554398</x:v>
+        <x:v>45919.5900731829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1267,7 +1267,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.7847960648</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1299,7 +1299,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45927.7847960648</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1331,7 +1331,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1363,7 +1363,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6798924421</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1395,7 +1395,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6671165162</x:v>
+        <x:v>45907.6798924421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1427,7 +1427,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4599076736</x:v>
+        <x:v>45907.6671165162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1459,7 +1459,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144664699</x:v>
+        <x:v>45909.4599076736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1491,7 +1491,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.4144664699</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1523,7 +1523,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.6074459491</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1555,7 +1555,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.5312450232</x:v>
+        <x:v>45919.6074459491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.9177272338</x:v>
+        <x:v>45922.5312450232</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.8244747685</x:v>
+        <x:v>45920.9177272338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1651,7 +1651,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45927.8244747685</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4732050926</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45918.4732050926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
